--- a/inst/xlsx/macrounchainedFocusGW-every-other-year.xlsx
+++ b/inst/xlsx/macrounchainedFocusGW-every-other-year.xlsx
@@ -20,7 +20,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">soil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crop</t>
+  </si>
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,6 +77,12 @@
   </si>
   <si>
     <t xml:space="preserve">years_interval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chateaudun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cereals, winter</t>
   </si>
   <si>
     <t xml:space="preserve">GW-M</t>
@@ -112,12 +124,18 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -154,9 +172,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -168,6 +198,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -176,7 +266,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -184,228 +274,256 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="4.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="3.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="2.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="7.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="9.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="3.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="7.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="9.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="19" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="0" t="s">
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="0" t="n">
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="F2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="G2" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="H2" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="n">
         <v>0.0948</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="K2" s="3" t="n">
         <v>0.49</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="L2" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="M2" s="3" t="n">
         <v>5E-010</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="3"/>
+      <c r="O2" s="3" t="n">
         <v>381</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="R2" s="3" t="n">
         <v>309</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="S2" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
+      <c r="A3" s="0" t="s">
+        <v>19</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="3" t="n">
         <v>114</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="F3" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="G3" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="H3" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3" t="n">
         <v>0.0948</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="K3" s="3" t="n">
         <v>0.49</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="L3" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="M3" s="3" t="n">
         <v>5E-010</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="N3" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="O3" s="3" t="n">
         <v>183</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="P3" s="3" t="n">
         <v>0.2</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="Q3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="R3" s="3" t="n">
         <v>309</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="S3" s="3" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="F4" s="3" t="n">
         <v>0.9</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="G4" s="3" t="n">
         <v>136</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="H4" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" s="3" t="n">
         <v>0.0948</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="K4" s="3" t="n">
         <v>0.49</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="L4" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="M4" s="3" t="n">
         <v>5E-010</v>
       </c>
-      <c r="L4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3" t="n">
         <v>140</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="P4" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="Q4" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="R4" s="3" t="n">
         <v>309</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="S4" s="3" t="n">
         <v>2</v>
       </c>
     </row>
